--- a/vtiger-crm-fw-A12-/src/test/resources/TestScriptData.xlsx
+++ b/vtiger-crm-fw-A12-/src/test/resources/TestScriptData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7620" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A12" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>Ashutosh</t>
   </si>
   <si>
-    <t>Golgapa</t>
+    <t>Golgappa</t>
   </si>
   <si>
     <t>Kunal</t>
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1308,8 +1308,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1526,8 +1526,8 @@
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
